--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292684.588881316</v>
+        <v>2290140.779374233</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.6326967715746</v>
       </c>
       <c r="W2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>77.76381689772225</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.3472481984277</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>104.5229761230077</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>60.96760033386515</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.0845781150033</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868264</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>76.45026453085313</v>
+        <v>242.8563301598665</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.0276666135364</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705247989</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>194.9747007711268</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.8244010340103</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908659</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>20.24979976115246</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099088</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747555</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906581</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754269</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>131.2944603446578</v>
+        <v>286.1844743892466</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.27150084979029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188831</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701365</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>39.52129633183164</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217695</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>141.3831318262993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.7518808581156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460259</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695702</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>43.73846614325559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609307</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.946099842952</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571243</v>
+        <v>423.8554133655999</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>423.8554133655999</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>719.6680007965863</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>545.2149715154593</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>396.280561854208</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>237.0431068487525</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>237.0431068487525</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>99.64642039781975</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4407,52 +4407,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166544</v>
+        <v>481.2742972781151</v>
       </c>
       <c r="W3" t="n">
-        <v>887.8833378166544</v>
+        <v>227.0369405499135</v>
       </c>
       <c r="X3" t="n">
-        <v>887.8833378166544</v>
+        <v>227.0369405499135</v>
       </c>
       <c r="Y3" t="n">
-        <v>887.8833378166544</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4492,46 +4492,46 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551006</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375332</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>949.2767562454108</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T4" t="n">
-        <v>723.8077200034251</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="U4" t="n">
-        <v>457.4300634362471</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>202.7455752303602</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>202.7455752303602</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>202.7455752303602</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>367.789405660333</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.1393936243021</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946889</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>904.2569522304907</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>474.2580350095589</v>
       </c>
       <c r="W6" t="n">
-        <v>742.4809223491777</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>534.6294221436449</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.1553595047027</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>225.1168882493046</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696886</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4729,46 +4729,46 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8038243349424</v>
+        <v>445.9094673928347</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8038243349424</v>
+        <v>225.1168882493046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643921</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478457</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685579</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685579</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.618618149732</v>
+        <v>2227.077931858404</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.618618149732</v>
+        <v>1874.30927658829</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.618618149732</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.47928617392</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010732</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199462</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586949</v>
       </c>
       <c r="E9" t="n">
         <v>448.6792199487294</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148188</v>
+        <v>559.9063389572701</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0176666131284</v>
+        <v>854.4423223907509</v>
       </c>
       <c r="M9" t="n">
-        <v>956.0841350874305</v>
+        <v>1217.508790865052</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.16853756</v>
+        <v>1851.248074049889</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.05534754739</v>
+        <v>2183.134884037278</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930553</v>
+        <v>2430.170242466902</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2545.387641020647</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251694</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685343</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751572</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.57421351983</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791628</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586095</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821141</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627303</v>
+        <v>367.0373856326728</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348234</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224876</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685579</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.63468308380125</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676563</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271478</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234517</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363365001</v>
+        <v>548.6858504629125</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.88535719297</v>
+        <v>548.6858504629125</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703089</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703089</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>545.3854261579731</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>397.47233257558</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>580.8993044876665</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597597</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474239</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650308</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038319</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179772</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602301</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614364</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>762.5477693179063</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,25 +6479,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782926</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038313</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797715</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258103</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611464</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400667</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797695</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703064</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,7 +6953,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7673,13 +7673,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415541</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594689</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3999281462905628</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538071</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>36.31458639917378</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538856</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>154.8900140445864</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610429</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.8013425629449</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260196</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404979</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952155</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580808</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911425</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101802</v>
+        <v>95270.23779101729</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>251227.3656190198</v>
+        <v>251227.3656190199</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501113</v>
+        <v>140465.2517501121</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.0322517935</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179343</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179343</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179343</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179347</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567887</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>301506.1585749264</v>
       </c>
       <c r="D6" t="n">
-        <v>-8266.799585658882</v>
+        <v>-8266.799585656772</v>
       </c>
       <c r="E6" t="n">
-        <v>-14838.84436888796</v>
+        <v>-14873.58229432677</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.3876918039</v>
+        <v>493035.6497663683</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918037</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918033</v>
+        <v>493035.6497663684</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="J6" t="n">
-        <v>424071.2332726893</v>
+        <v>424036.495347254</v>
       </c>
       <c r="K6" t="n">
-        <v>493070.3876918035</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="L6" t="n">
-        <v>397800.1499007856</v>
+        <v>397765.4119753505</v>
       </c>
       <c r="M6" t="n">
-        <v>360352.4119963349</v>
+        <v>360317.6740708986</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="O6" t="n">
-        <v>493070.3876918036</v>
+        <v>493035.6497663681</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918033</v>
+        <v>493035.6497663679</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627818</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,25 +26793,25 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856946</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,25 +26963,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933061</v>
+        <v>319.6474457933038</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841885</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.567598013954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841883</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841885</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.567598013954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169856029</v>
       </c>
       <c r="W2" t="n">
-        <v>136.6720035995079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>21.71550337348751</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788767</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,7 +27552,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100.1961881205861</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>225.2910301688123</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.7914676267082</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514523</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>175.2447186300665</v>
+        <v>8.838653001053103</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>65.21915448509145</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045135</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>132.7775576990081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.9066996444587</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.77644916453508</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164524166</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.43893679709444e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.43893679709444e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-3.526528784599093e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.790165203036685e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.607718096583367e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.156165985012779e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29746,13 +29746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-7.71678812803845e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-5.343739387129993e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31276,28 +31276,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
         <v>415.9250721658378</v>
@@ -31309,10 +31309,10 @@
         <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,7 +31361,7 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
@@ -31370,7 +31370,7 @@
         <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043655</v>
@@ -31379,25 +31379,25 @@
         <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
         <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,13 +31437,13 @@
         <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
@@ -31452,10 +31452,10 @@
         <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
@@ -31464,19 +31464,19 @@
         <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885552</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972529</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763184</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354923</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359932</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525068</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307886</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983014</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542124</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.5346524514046</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026262</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502164</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571275</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.867840461716</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152207</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519078</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947585</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415873</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307405</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630678</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043494</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823472</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>123.5028874333356</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,16 +35094,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
@@ -35112,7 +35112,7 @@
         <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313379</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655051</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559159</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091018</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430319</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.038476879763</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.90656844127562</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>450.926849488436</v>
       </c>
       <c r="L9" t="n">
-        <v>297.9110225235451</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396977</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>640.1406900856946</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.2392020074633</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203664</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961981</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335568854</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873301</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228567</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096325</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,7 +36689,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831936</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295026</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191262</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>342.5164587638463</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010473</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
